--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataRun" sheetId="3" r:id="rId1"/>
-    <sheet name="DataAuto" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DataAuto" sheetId="1" r:id="rId2"/>
     <sheet name="Common" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="KeySearch" sheetId="5" r:id="rId4"/>
-    <sheet name="Table" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Table" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>GoToPage</t>
   </si>
@@ -106,9 +106,6 @@
     <t>//button[contains(@title= 'Enable repeat')]</t>
   </si>
   <si>
-    <t>3Pzkgk2OcFZsRA6pK2vCBu</t>
-  </si>
-  <si>
     <t>FindElementForExist</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Hana Le</t>
   </si>
   <si>
-    <t>myheartgoon11123334@gmail.com</t>
-  </si>
-  <si>
     <t>myhe2art22goon1@gmail.com</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>https://open.spotify.com/album/{KeySearch}</t>
   </si>
   <si>
-    <t>Maihuudanh131</t>
-  </si>
-  <si>
     <t>Maihuudanh141</t>
   </si>
   <si>
@@ -260,6 +251,24 @@
   </si>
   <si>
     <t>Maihuudanh169</t>
+  </si>
+  <si>
+    <t>1BIJC3FOMraNuyglt7XkYq</t>
+  </si>
+  <si>
+    <t>cuong96nghean</t>
+  </si>
+  <si>
+    <t>hrebgtt@gmail.com</t>
+  </si>
+  <si>
+    <t>UserJavascript</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("_9642f084eaa7faec9f8f003145b6c289-scss")[7].click()</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("ff6a86a966a265b5a51cf8e30c6c52f4-scss")[0].click()</t>
   </si>
 </sst>
 </file>
@@ -375,8 +384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A14" totalsRowShown="0">
-  <autoFilter ref="A1:A14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0">
+  <autoFilter ref="A1:A15"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Event"/>
   </tableColumns>
@@ -649,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,374 +687,374 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:myheartgoon11123334@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2" display="mailto:myhe2art22goon1@gmail.com"/>
     <hyperlink ref="A4" r:id="rId3" display="mailto:myheartgoon1dd2@gmail.com"/>
     <hyperlink ref="A5" r:id="rId4" display="mailto:myheartgoon15567@gmail.com"/>
@@ -1060,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,10 +1123,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1125,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1138,58 +1147,98 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1197,6 +1246,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="login-username|woehljay052@gmail.com"/>
     <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1204,9 +1254,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Table!$A$2:$A$14</xm:f>
+            <xm:f>Table!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A3:A8 A10:A12 A14:A213</xm:sqref>
+          <xm:sqref>A1 A3:A13 A15:A17 A19:A218</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1218,7 +1268,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A9 A13</xm:sqref>
+          <xm:sqref>A14 A18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1263,10 +1313,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1289,57 +1339,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1349,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,7 +1477,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="6740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataRun" sheetId="3" r:id="rId1"/>
     <sheet name="DataAuto" sheetId="1" r:id="rId2"/>
     <sheet name="Common" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="KeySearch" sheetId="5" r:id="rId4"/>
-    <sheet name="Table" sheetId="2" r:id="rId5"/>
+    <sheet name="Table" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>GoToPage</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>https://accounts.spotify.com/vi-VN/login?continue=https:%2F%2Fopen.spotify.com%2F</t>
-  </si>
-  <si>
     <t>login-button</t>
   </si>
   <si>
@@ -121,154 +118,55 @@
     <t>//button[contains(@aria-label, 'Enable repeat')]</t>
   </si>
   <si>
+    <t>https://open.spotify.com/album/{KeySearch}</t>
+  </si>
+  <si>
+    <t>UserJavascript</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("_9642f084eaa7faec9f8f003145b6c289-scss")[7].click()</t>
+  </si>
+  <si>
+    <t>Bichphuong51@gmail.com</t>
+  </si>
+  <si>
+    <t>Bichphuong51</t>
+  </si>
+  <si>
+    <t>Bichphuong52@gmail.com</t>
+  </si>
+  <si>
+    <t>Bichphuong52</t>
+  </si>
+  <si>
+    <t>Bichphuong53@gmail.com</t>
+  </si>
+  <si>
+    <t>Bichphuong53</t>
+  </si>
+  <si>
+    <t>Bichphuong54@gmail.com</t>
+  </si>
+  <si>
+    <t>Bichphuong54</t>
+  </si>
+  <si>
+    <t>Bichphuong55@gmail.com</t>
+  </si>
+  <si>
+    <t>Bichphuong55</t>
+  </si>
+  <si>
     <t>Hana Le</t>
   </si>
   <si>
-    <t>myhe2art22goon1@gmail.com</t>
-  </si>
-  <si>
-    <t>myheartgoon1dd2@gmail.com</t>
-  </si>
-  <si>
-    <t>myheartgoon15567@gmail.com</t>
-  </si>
-  <si>
-    <t>myhe2artgoon22221@gmail.com</t>
-  </si>
-  <si>
-    <t>https://open.spotify.com/album/{KeySearch}</t>
-  </si>
-  <si>
-    <t>Maihuudanh141</t>
-  </si>
-  <si>
-    <t>Maihuudanh132</t>
-  </si>
-  <si>
-    <t>Maihuudanh133</t>
-  </si>
-  <si>
-    <t>Maihuudanh134</t>
-  </si>
-  <si>
-    <t>Maihuudanh135</t>
-  </si>
-  <si>
-    <t>Maihuudanh136</t>
-  </si>
-  <si>
-    <t>Maihuudanh137</t>
-  </si>
-  <si>
-    <t>Maihuudanh138</t>
-  </si>
-  <si>
-    <t>Maihuudanh139</t>
-  </si>
-  <si>
-    <t>Maihuudanh140</t>
-  </si>
-  <si>
-    <t>Maihuudanh142</t>
-  </si>
-  <si>
-    <t>Maihuudanh143</t>
-  </si>
-  <si>
-    <t>Maihuudanh144</t>
-  </si>
-  <si>
-    <t>Maihuudanh145</t>
-  </si>
-  <si>
-    <t>Maihuudanh146</t>
-  </si>
-  <si>
-    <t>Maihuudanh147</t>
-  </si>
-  <si>
-    <t>Maihuudanh148</t>
-  </si>
-  <si>
-    <t>Maihuudanh149</t>
-  </si>
-  <si>
-    <t>Maihuudanh150</t>
-  </si>
-  <si>
-    <t>Maihuudanh151</t>
-  </si>
-  <si>
-    <t>Maihuudanh152</t>
-  </si>
-  <si>
-    <t>Maihuudanh153</t>
-  </si>
-  <si>
-    <t>Maihuudanh154</t>
-  </si>
-  <si>
-    <t>Maihuudanh155</t>
-  </si>
-  <si>
-    <t>Maihuudanh156</t>
-  </si>
-  <si>
-    <t>Maihuudanh157</t>
-  </si>
-  <si>
-    <t>Maihuudanh158</t>
-  </si>
-  <si>
-    <t>Maihuudanh159</t>
-  </si>
-  <si>
-    <t>Maihuudanh160</t>
-  </si>
-  <si>
-    <t>Maihuudanh161</t>
-  </si>
-  <si>
-    <t>Maihuudanh162</t>
-  </si>
-  <si>
-    <t>Maihuudanh163</t>
-  </si>
-  <si>
-    <t>Maihuudanh164</t>
-  </si>
-  <si>
-    <t>Maihuudanh165</t>
-  </si>
-  <si>
-    <t>Maihuudanh166</t>
-  </si>
-  <si>
-    <t>Maihuudanh167</t>
-  </si>
-  <si>
-    <t>Maihuudanh168</t>
-  </si>
-  <si>
-    <t>Maihuudanh169</t>
-  </si>
-  <si>
-    <t>1BIJC3FOMraNuyglt7XkYq</t>
-  </si>
-  <si>
-    <t>cuong96nghean</t>
-  </si>
-  <si>
-    <t>hrebgtt@gmail.com</t>
-  </si>
-  <si>
-    <t>UserJavascript</t>
-  </si>
-  <si>
-    <t>document.getElementsByClassName("_9642f084eaa7faec9f8f003145b6c289-scss")[7].click()</t>
-  </si>
-  <si>
-    <t>document.getElementsByClassName("ff6a86a966a265b5a51cf8e30c6c52f4-scss")[0].click()</t>
+    <t>7kIhy7Sg7XFhMriZTRtdXj</t>
+  </si>
+  <si>
+    <t>//*[@id='main']/div/div[2]/div[3]/main/div[2]/div[2]/div/div/div[2]/section/div[1]/div[5]/div/div/a</t>
+  </si>
+  <si>
+    <t>https://accounts.spotify.com/</t>
   </si>
 </sst>
 </file>
@@ -659,7 +557,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,406 +571,264 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>77</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>39</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:myhe2art22goon1@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:myheartgoon1dd2@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:myheartgoon15567@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:myhe2artgoon22221@gmail.com"/>
-    <hyperlink ref="A7:A30" r:id="rId6" display="mailto:myhe2artgoon22221@gmail.com"/>
-    <hyperlink ref="A31:A40" r:id="rId7" display="mailto:myhe2artgoon22221@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,23 +842,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1110,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1123,10 +879,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1134,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1147,10 +903,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1163,82 +919,98 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>31</v>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1018,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="login-username|woehljay052@gmail.com"/>
     <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1256,7 +1028,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A3:A13 A15:A17 A19:A218</xm:sqref>
+          <xm:sqref>A1 A3:A15 A17:A19 A21:A220</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1268,7 +1040,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A14 A18</xm:sqref>
+          <xm:sqref>A16 A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1292,31 +1064,31 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1328,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1339,57 +1109,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1457,32 +1227,32 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Album.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="6740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="6740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DataRun" sheetId="3" r:id="rId1"/>
-    <sheet name="DataAuto" sheetId="1" r:id="rId2"/>
+    <sheet name="DataAuto" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Common" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="KeySearch" sheetId="5" r:id="rId4"/>
     <sheet name="Table" sheetId="2" state="hidden" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>GoToPage</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>https://accounts.spotify.com/</t>
+  </si>
+  <si>
+    <t>//span[text()='Incorrect username or password.']</t>
   </si>
 </sst>
 </file>
@@ -825,10 +828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,129 +890,137 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1000</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1000</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1017,8 +1028,8 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="login-username|woehljay052@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1028,7 +1039,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A3:A15 A17:A19 A21:A220</xm:sqref>
+          <xm:sqref>A1 A22:A221 A18:A20 A3:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1040,7 +1051,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A16 A20</xm:sqref>
+          <xm:sqref>A17 A21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1100,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
